--- a/VRSS_Ref/mapping/SeroNet_RefrStudy_data_mapping-2.xlsx
+++ b/VRSS_Ref/mapping/SeroNet_RefrStudy_data_mapping-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/VRSS_Ref/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8C2FF-727C-5947-97AD-8CD4A27C1132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE42C12D-7943-9E43-BC8D-CF0CB4A8C1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="31160" windowHeight="19360" tabRatio="709" activeTab="5" xr2:uid="{9190623A-AC33-BB42-8A82-BA8C66618816}"/>
+    <workbookView xWindow="6580" yWindow="500" windowWidth="26880" windowHeight="19360" tabRatio="709" activeTab="4" xr2:uid="{9190623A-AC33-BB42-8A82-BA8C66618816}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The condition(s)/disease(s) that is (are) being researched or evaluated in the study.  Please select condition or disease from the list provided if the condition or disease matches yours or enter a condition or disease if there is not an appropriate one provided.  Values provided by the user are further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column study_2_condition_or_disease.condition_reported and has data type varchar(550)</t>
         </r>
@@ -540,10 +539,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The order of the visit within the study design schedule.  The template column is associated with the following database table column planned_visit.order_number and has data type integer</t>
         </r>
@@ -872,10 +870,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column subject.user_defined_id and has data type varchar(100)</t>
         </r>
@@ -996,10 +993,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.subject_location and has data type varchar(50)</t>
         </r>
@@ -1092,10 +1088,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>This describes what substance(s) the host is exposed to and/or develops immune reactions to as part of the exposure process. Please select an exposure material from the list provided if the exposure material matches yours or enter a exposure material if there is not an appropriate one provided. This exposure material is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_material_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_material_reported and has data type varchar(200)</t>
         </r>
@@ -1172,10 +1167,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column biosample.user_defined_id and has data type varchar(100)</t>
         </r>
@@ -1376,10 +1370,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The reagent name is an alternate ID that is shared.  The template column is associated with the following database table column reagent.name and has data type varchar(200)</t>
         </r>
@@ -1390,10 +1383,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>A supplemental description of the assay reagent that expands on its Name and User Defined ID.  The template column is associated with the following database table column reagent.description and has data type varchar(4000)</t>
         </r>
@@ -1896,10 +1888,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The unit for the assessment value.  The template column is associated with the following database table column assessment_component.result_unit_reported and has data type varchar(40)</t>
         </r>
@@ -1938,10 +1929,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>When during the day was the assessment completed.  The template column is associated with the following database table column assessment_component.time_of_day and has data type varchar(40)</t>
         </r>
@@ -2005,7 +1995,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="344">
   <si>
     <t>basic_study_design</t>
   </si>
@@ -3060,12 +3050,57 @@
   <si>
     <t>*SHOWS</t>
   </si>
+  <si>
+    <t>* I THINK THIS SHOULD BE SERUM OR PMBC</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Infections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">list </t>
+  </si>
+  <si>
+    <t>Data Dictionary for the result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lk_up - We can add specific units </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Covid here, while all the data on Covid (covid history and testing data ) can be in assessment in </t>
+  </si>
+  <si>
+    <t>COVID HISTORY</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>Positive, Neg</t>
+  </si>
+  <si>
+    <t>ADD COMOBITIY NAMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** USE FOR EXP THAT ARE NOT IN THE IMMPORT TEMPLATES </t>
+  </si>
+  <si>
+    <t>IF THERE IS NOT A IMMPORT RESULT FILE, USE GEN RESULT FILE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3193,8 +3228,15 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3335,6 +3377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3584,7 +3632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3740,6 +3788,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11399,8 +11452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A072869-33A9-0A4D-A4EA-CDB93DF1EC02}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11632,7 +11685,9 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="D30" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -12030,8 +12085,8 @@
   </sheetPr>
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="176" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="M1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12223,6 +12278,9 @@
       </c>
       <c r="I10" s="13" t="s">
         <v>101</v>
+      </c>
+      <c r="R10" s="75" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -12369,8 +12427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C2029-7AA9-DA47-91D9-A9AA7970DC8B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="F2" zoomScale="177" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12474,6 +12532,9 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="73" t="s">
+        <v>329</v>
+      </c>
       <c r="I10" s="63"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -12565,8 +12626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B240CB-D574-D144-97A8-848DE25158FC}">
   <dimension ref="A3:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="J5" zoomScale="176" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:P15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12865,6 +12926,9 @@
       <c r="B24" t="s">
         <v>197</v>
       </c>
+      <c r="C24" s="75" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -12941,6 +13005,11 @@
       </c>
       <c r="Y25" s="10" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G26" s="75" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -13110,10 +13179,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0DD109-C171-4845-81A1-4E836EC441C7}">
-  <dimension ref="A3:AB20"/>
+  <dimension ref="A3:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13122,8 +13191,8 @@
       <c r="O3" t="s">
         <v>103</v>
       </c>
-      <c r="T3" t="s">
-        <v>103</v>
+      <c r="T3" s="38" t="s">
+        <v>334</v>
       </c>
       <c r="Z3" t="s">
         <v>206</v>
@@ -13274,6 +13343,9 @@
       <c r="T12" t="s">
         <v>103</v>
       </c>
+      <c r="X12" t="s">
+        <v>333</v>
+      </c>
       <c r="Z12" s="38" t="s">
         <v>233</v>
       </c>
@@ -13288,6 +13360,9 @@
       <c r="T13" t="s">
         <v>236</v>
       </c>
+      <c r="X13" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
@@ -13317,6 +13392,9 @@
       <c r="T18" s="38" t="s">
         <v>242</v>
       </c>
+      <c r="X18" t="s">
+        <v>333</v>
+      </c>
       <c r="Z18" s="38" t="s">
         <v>243</v>
       </c>
@@ -13329,6 +13407,51 @@
     <row r="20" spans="5:26" x14ac:dyDescent="0.2">
       <c r="Z20" s="38" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="5:26" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L21" t="s">
+        <v>331</v>
+      </c>
+      <c r="X21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="5:26" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="5:26" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="5:26" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="5:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>336</v>
+      </c>
+      <c r="L27" t="s">
+        <v>337</v>
+      </c>
+      <c r="S27" t="s">
+        <v>338</v>
+      </c>
+      <c r="T27" s="74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="5:26" x14ac:dyDescent="0.2">
+      <c r="S28" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -13723,14 +13846,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="03516476-1bfe-483f-b2ba-b973d7a059b5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40dc4215-d640-40f9-bd74-ec8cab922487">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13957,27 +14078,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="03516476-1bfe-483f-b2ba-b973d7a059b5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40dc4215-d640-40f9-bd74-ec8cab922487">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBB08CF-34E8-4BC0-81EB-EA195524C7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81BAC663-4AB4-4302-ABC8-8842F68252E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03516476-1bfe-483f-b2ba-b973d7a059b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="40dc4215-d640-40f9-bd74-ec8cab922487"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14002,9 +14116,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81BAC663-4AB4-4302-ABC8-8842F68252E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBB08CF-34E8-4BC0-81EB-EA195524C7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03516476-1bfe-483f-b2ba-b973d7a059b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="40dc4215-d640-40f9-bd74-ec8cab922487"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>